--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/exceljson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A30B5-90A7-C947-8DF9-A7B22E599FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA884987-CDBF-CC45-AADD-5E0BA0BC0C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>Source Topic</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Attribute Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Source To Target Mapping.Transformation Logic</t>
   </si>
   <si>
@@ -233,6 +231,15 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Source To Target Mapping/Transformation Logic</t>
   </si>
 </sst>
 </file>
@@ -682,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,36 +700,41 @@
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,470 +745,609 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>I3&amp;""&amp;"name"</f>
+        <v>MARSname</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f>"This Is "&amp;I3&amp;" "&amp;J3&amp;" field"</f>
+        <v>This Is MARS MARSname field</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f>G3&amp;""&amp;"name"</f>
-        <v>MARSname</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="str">
-        <f>"This Is "&amp;G3&amp;" "&amp;H3&amp;" field"</f>
-        <v>This Is MARS MARSname field</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="J4" s="1" t="str">
+        <f>I4&amp;""&amp;"name"</f>
+        <v>MARS.SUNname</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" ref="N4:N14" si="0">"This Is "&amp;I4&amp;" "&amp;J4&amp;" field"</f>
+        <v>This Is MARS.SUN MARS.SUNname field</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>G4&amp;""&amp;"name"</f>
-        <v>MARS.SUNname</v>
-      </c>
-      <c r="I4" s="1">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="str">
-        <f t="shared" ref="K4:K14" si="0">"This Is "&amp;G4&amp;" "&amp;H4&amp;" field"</f>
-        <v>This Is MARS.SUN MARS.SUNname field</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="J5" s="1" t="str">
+        <f t="shared" ref="J5:J14" si="1">I5&amp;""&amp;"name"</f>
+        <v>MARS.MOONname</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
+        <v>120</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>This Is MARS.MOON MARS.MOONname field</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H14" si="1">G5&amp;""&amp;"name"</f>
-        <v>MARS.MOONname</v>
-      </c>
-      <c r="I5" s="1">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>This Is MARS.MOON MARS.MOONname field</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.EARTHname</v>
       </c>
-      <c r="I6" s="1">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.EARTH MARS.EARTHname field</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="str">
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.EARTH.PLANETname</v>
       </c>
-      <c r="I7" s="1">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="str">
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.EARTH.PLANET MARS.EARTH.PLANETname field</v>
       </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1" t="str">
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.EARTH.SATALITEname</v>
       </c>
-      <c r="I8" s="1">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="str">
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.EARTH.SATALITE MARS.EARTH.SATALITEname field</v>
       </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1" t="str">
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.SOLARname</v>
       </c>
-      <c r="I9" s="1">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="str">
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.SOLAR MARS.SOLARname field</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1" t="str">
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.SOLAR.BLAKHOLEname</v>
       </c>
-      <c r="I10" s="1">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="str">
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="1">
+        <v>60</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.SOLAR.BLAKHOLE MARS.SOLAR.BLAKHOLEname field</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="str">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSEname</v>
       </c>
-      <c r="I11" s="1">
-        <v>28</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="str">
+      <c r="K11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.UNIVERSE MARS.UNIVERSEname field</v>
       </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="str">
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSE.GALAXYname</v>
       </c>
-      <c r="I12" s="1">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="str">
+      <c r="K12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.UNIVERSE.GALAXY MARS.UNIVERSE.GALAXYname field</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <v>220</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1" t="str">
+      <c r="I13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSE.CENTERPTname</v>
       </c>
-      <c r="I13" s="1">
-        <v>30</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="str">
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="1">
+        <v>220</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.UNIVERSE.CENTERPT MARS.UNIVERSE.CENTERPTname field</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="str">
+      <c r="I14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSE.CENTERPT.HOLEname</v>
       </c>
-      <c r="I14" s="1">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="str">
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>This Is MARS.UNIVERSE.CENTERPT.HOLE MARS.UNIVERSE.CENTERPT.HOLEname field</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1209,8 +1360,11 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1223,8 +1377,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1237,8 +1394,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1251,12 +1411,168 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD72A247-9488-844D-8910-8061D7C54873}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>""""&amp;A1&amp;""","</f>
+        <v>"Source Topic",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B15" si="0">""""&amp;A2&amp;""","</f>
+        <v>"Schema",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Attribute Name",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Data Type",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Length",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Decimal",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Source To Target Mapping/Transformation Logic",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Topc",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Schema",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Field",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Data Type",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Length",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Decimal",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Comment",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>"CustomType",</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/exceljson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA884987-CDBF-CC45-AADD-5E0BA0BC0C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B7BFA6-850B-4444-A5B0-BCF22C4F9F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Source Topic</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>Source To Target Mapping/Transformation Logic</t>
+  </si>
+  <si>
+    <t>Zenga</t>
+  </si>
+  <si>
+    <t>RollaZenga</t>
+  </si>
+  <si>
+    <t>RollaZenga File</t>
   </si>
 </sst>
 </file>
@@ -691,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:N14" si="0">"This Is "&amp;I4&amp;" "&amp;J4&amp;" field"</f>
+        <f t="shared" ref="N4:N15" si="0">"This Is "&amp;I4&amp;" "&amp;J4&amp;" field"</f>
         <v>This Is MARS.SUN MARS.SUNname field</v>
       </c>
       <c r="O4" s="1"/>
@@ -904,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" ref="J5:J14" si="1">I5&amp;""&amp;"name"</f>
+        <f>I5&amp;""&amp;"name"</f>
         <v>MARS.MOONname</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -951,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J5:J15" si="1">I6&amp;""&amp;"name"</f>
         <v>MARS.EARTHname</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1356,12 +1365,20 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Zenganame</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>This Is Zenga Zenganame field</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1373,12 +1390,18 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B7BFA6-850B-4444-A5B0-BCF22C4F9F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217AFCE9-C759-D74E-86B6-07070453164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Attribute Name</t>
   </si>
   <si>
-    <t>Source To Target Mapping.Transformation Logic</t>
-  </si>
-  <si>
     <t>Topc</t>
   </si>
   <si>
@@ -62,15 +59,9 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Source: Kafka</t>
-  </si>
-  <si>
     <t>Middleware</t>
   </si>
   <si>
-    <t>Target:FINAL Product Topic</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -249,6 +240,15 @@
   </si>
   <si>
     <t>RollaZenga File</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Source: System</t>
+  </si>
+  <si>
+    <t>Target:System</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -731,10 +731,10 @@
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -754,54 +754,54 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -810,20 +810,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>I3&amp;""&amp;"name"</f>
         <v>MARSname</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -839,16 +839,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1">
         <v>18</v>
@@ -857,20 +857,20 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>I4&amp;""&amp;"name"</f>
         <v>MARS.SUNname</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1">
         <v>18</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <v>120</v>
@@ -904,20 +904,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>I5&amp;""&amp;"name"</f>
         <v>MARS.MOONname</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L5" s="1">
         <v>120</v>
@@ -933,16 +933,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>22</v>
@@ -951,20 +951,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" ref="J5:J15" si="1">I6&amp;""&amp;"name"</f>
         <v>MARS.EARTHname</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L6" s="1">
         <v>22</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -998,20 +998,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.EARTH.PLANETname</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L7" s="1">
         <v>40</v>
@@ -1027,16 +1027,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
@@ -1045,20 +1045,20 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.EARTH.SATALITEname</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L8" s="1">
         <v>10</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -1092,20 +1092,20 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.SOLARname</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1">
         <v>10</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1">
         <v>60</v>
@@ -1139,20 +1139,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.SOLAR.BLAKHOLEname</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L10" s="1">
         <v>60</v>
@@ -1168,16 +1168,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1186,20 +1186,20 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSEname</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L11" s="1">
         <v>10</v>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -1233,20 +1233,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSE.GALAXYname</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L12" s="1">
         <v>10</v>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
         <v>220</v>
@@ -1280,20 +1280,20 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSE.CENTERPTname</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L13" s="1">
         <v>220</v>
@@ -1306,21 +1306,21 @@
         <v>This Is MARS.UNIVERSE.CENTERPT MARS.UNIVERSE.CENTERPTname field</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -1329,20 +1329,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>MARS.UNIVERSE.CENTERPT.HOLEname</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L14" s="1">
         <v>10</v>
@@ -1366,7 +1366,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1391,16 +1391,16 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217AFCE9-C759-D74E-86B6-07070453164A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E6EED-23F2-3149-A4A3-ADA000ADCACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>Source Topic</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t>Source To Target Mapping/Transformation Logic</t>
-  </si>
-  <si>
     <t>Zenga</t>
   </si>
   <si>
@@ -249,13 +246,182 @@
   </si>
   <si>
     <t>Target:System</t>
+  </si>
+  <si>
+    <t>This is MarName 
+and this is second line</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>transitions</t>
+  </si>
+  <si>
+    <t>uiapp</t>
+  </si>
+  <si>
+    <t>uimodule</t>
+  </si>
+  <si>
+    <t>uipage</t>
+  </si>
+  <si>
+    <t>componenttype</t>
+  </si>
+  <si>
+    <t>actiontype</t>
+  </si>
+  <si>
+    <t>transitiontype</t>
+  </si>
+  <si>
+    <t>objectid</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>decisions</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>array[transition]</t>
+  </si>
+  <si>
+    <t>array[action]</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>array[class]</t>
+  </si>
+  <si>
+    <t>inlinestyle</t>
+  </si>
+  <si>
+    <t>workflows</t>
+  </si>
+  <si>
+    <t>array[workflow]</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>array[string]</t>
+  </si>
+  <si>
+    <t>array[event]</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>childrens</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>object&lt;component&gt;</t>
+  </si>
+  <si>
+    <t>array[component]</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>map[string,string]</t>
+  </si>
+  <si>
+    <t>rendermap</t>
+  </si>
+  <si>
+    <t>object&lt;attributes&gt;</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>object&lt;componenttype&gt;</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,8 +443,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +477,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -364,17 +550,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,6 +588,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,19 +929,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -763,7 +970,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -790,7 +997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -823,17 +1030,16 @@
         <v>MARSname</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="L3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f>"This Is "&amp;I3&amp;" "&amp;J3&amp;" field"</f>
-        <v>This Is MARS MARSname field</v>
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -873,7 +1079,7 @@
         <v>59</v>
       </c>
       <c r="L4" s="1">
-        <v>18</v>
+        <v>550</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -920,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="1">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -960,14 +1166,14 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J5:J15" si="1">I6&amp;""&amp;"name"</f>
+        <f t="shared" ref="J6:J15" si="1">I6&amp;""&amp;"name"</f>
         <v>MARS.EARTHname</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="L6" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1366,14 +1572,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Zenganame</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="1">
+        <v>40</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1391,16 +1601,20 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="1">
+        <v>40</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -1449,150 +1663,420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD72A247-9488-844D-8910-8061D7C54873}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A2:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>""""&amp;A1&amp;""","</f>
-        <v>"Source Topic",</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B15" si="0">""""&amp;A2&amp;""","</f>
-        <v>"Schema",</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>"Attribute Name",</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>"Data Type",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>"Length",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>"Decimal",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>"Source To Target Mapping/Transformation Logic",</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>"Topc",</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>"Schema",</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>"Field",</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>"Data Type",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>"Length",</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>"Decimal",</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>"Comment",</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>"CustomType",</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459E6EED-23F2-3149-A4A3-ADA000ADCACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC60690-D285-0C4F-9915-A1D34D882218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>Source Topic</t>
   </si>
@@ -415,6 +416,36 @@
   </si>
   <si>
     <t>double</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>asdfa</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>ZEBRA</t>
+  </si>
+  <si>
+    <t>MARS.DAP</t>
+  </si>
+  <si>
+    <t>MARS.UNIVERSE.AS</t>
   </si>
 </sst>
 </file>
@@ -573,12 +604,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,9 +622,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,14 +960,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD72A247-9488-844D-8910-8061D7C54873}">
   <dimension ref="A2:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1677,347 +1708,347 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="12"/>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="12"/>
+      <c r="B23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="12"/>
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="12"/>
+      <c r="B34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="12"/>
+      <c r="B35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="12"/>
+      <c r="B36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
@@ -2077,6 +2108,205 @@
     <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
         <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BC83BB-AFE8-4548-A31E-00B8B1C88279}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC60690-D285-0C4F-9915-A1D34D882218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEEF99-37F2-A94F-9562-E93AF5E75FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Source Topic</t>
   </si>
@@ -251,165 +250,6 @@
   <si>
     <t>This is MarName 
 and this is second line</t>
-  </si>
-  <si>
-    <t>components</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>transitions</t>
-  </si>
-  <si>
-    <t>uiapp</t>
-  </si>
-  <si>
-    <t>uimodule</t>
-  </si>
-  <si>
-    <t>uipage</t>
-  </si>
-  <si>
-    <t>componenttype</t>
-  </si>
-  <si>
-    <t>actiontype</t>
-  </si>
-  <si>
-    <t>transitiontype</t>
-  </si>
-  <si>
-    <t>objectid</t>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>decisions</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>classes</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>transition</t>
-  </si>
-  <si>
-    <t>array[transition]</t>
-  </si>
-  <si>
-    <t>array[action]</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>array[class]</t>
-  </si>
-  <si>
-    <t>inlinestyle</t>
-  </si>
-  <si>
-    <t>workflows</t>
-  </si>
-  <si>
-    <t>array[workflow]</t>
-  </si>
-  <si>
-    <t>workflow</t>
-  </si>
-  <si>
-    <t>icons</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>array[string]</t>
-  </si>
-  <si>
-    <t>array[event]</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>childrens</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>attributes</t>
-  </si>
-  <si>
-    <t>object&lt;component&gt;</t>
-  </si>
-  <si>
-    <t>array[component]</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>alt</t>
-  </si>
-  <si>
-    <t>src</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>map[string,string]</t>
-  </si>
-  <si>
-    <t>rendermap</t>
-  </si>
-  <si>
-    <t>object&lt;attributes&gt;</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>object&lt;componenttype&gt;</t>
   </si>
   <si>
     <t>float</t>
@@ -452,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,16 +314,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,20 +340,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -581,26 +401,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF00B0F0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF00B0F0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00B0F0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00B0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -610,9 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,14 +762,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +863,7 @@
         <v>MARSname</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -1201,7 +1003,7 @@
         <v>MARS.EARTHname</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="L6" s="1">
         <v>10</v>
@@ -1693,434 +1495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD72A247-9488-844D-8910-8061D7C54873}">
-  <dimension ref="A2:E58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BC83BB-AFE8-4548-A31E-00B8B1C88279}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,183 +1509,183 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEEF99-37F2-A94F-9562-E93AF5E75FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AF16A0-1E3E-1448-A501-D8E7CE90B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="142">
   <si>
     <t>Source Topic</t>
   </si>
@@ -273,9 +274,6 @@
     <t>Object</t>
   </si>
   <si>
-    <t>asdfa</t>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
@@ -286,13 +284,193 @@
   </si>
   <si>
     <t>MARS.UNIVERSE.AS</t>
+  </si>
+  <si>
+    <t>Tpk1</t>
+  </si>
+  <si>
+    <t>Tpk2</t>
+  </si>
+  <si>
+    <t>Tpk3</t>
+  </si>
+  <si>
+    <t>Tpk4</t>
+  </si>
+  <si>
+    <t>Tpk5</t>
+  </si>
+  <si>
+    <t>Tpk6</t>
+  </si>
+  <si>
+    <t>Tpk7</t>
+  </si>
+  <si>
+    <t>Tpk8</t>
+  </si>
+  <si>
+    <t>Tpk9</t>
+  </si>
+  <si>
+    <t>Tpk10</t>
+  </si>
+  <si>
+    <t>Tpk11</t>
+  </si>
+  <si>
+    <t>Tpk12</t>
+  </si>
+  <si>
+    <t>Tpk13</t>
+  </si>
+  <si>
+    <t>Tpk14</t>
+  </si>
+  <si>
+    <t>Tpk15</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>"SUN"</t>
+  </si>
+  <si>
+    <t>"SUNName"</t>
+  </si>
+  <si>
+    <t>"Tpk3"</t>
+  </si>
+  <si>
+    <t>"MOON"</t>
+  </si>
+  <si>
+    <t>"MOONName"</t>
+  </si>
+  <si>
+    <t>"Tpk4"</t>
+  </si>
+  <si>
+    <t>"EARTH"</t>
+  </si>
+  <si>
+    <t>"EARTHName"</t>
+  </si>
+  <si>
+    <t>"Tpk5"</t>
+  </si>
+  <si>
+    <t>"PLANET"</t>
+  </si>
+  <si>
+    <t>"PLANETName"</t>
+  </si>
+  <si>
+    <t>"Tpk6"</t>
+  </si>
+  <si>
+    <t>"Tpk7"</t>
+  </si>
+  <si>
+    <t>"SATALITE"</t>
+  </si>
+  <si>
+    <t>"SATALITEName"</t>
+  </si>
+  <si>
+    <t>"Tpk8"</t>
+  </si>
+  <si>
+    <t>"SOLAR"</t>
+  </si>
+  <si>
+    <t>"SOLARName"</t>
+  </si>
+  <si>
+    <t>"Tpk9"</t>
+  </si>
+  <si>
+    <t>"BLAKHOLE"</t>
+  </si>
+  <si>
+    <t>"BLAKHOLEName"</t>
+  </si>
+  <si>
+    <t>"Tpk10"</t>
+  </si>
+  <si>
+    <t>"UNIVERSE"</t>
+  </si>
+  <si>
+    <t>"UNIVERSEName"</t>
+  </si>
+  <si>
+    <t>"Tpk12"</t>
+  </si>
+  <si>
+    <t>"GALAXY"</t>
+  </si>
+  <si>
+    <t>"GALAXYName"</t>
+  </si>
+  <si>
+    <t>"Tpk13"</t>
+  </si>
+  <si>
+    <t>"CENTERPT"</t>
+  </si>
+  <si>
+    <t>"CENTERPTName"</t>
+  </si>
+  <si>
+    <t>"Tpk14"</t>
+  </si>
+  <si>
+    <t>"HOLE"</t>
+  </si>
+  <si>
+    <t>"HOLEName"</t>
+  </si>
+  <si>
+    <t>"Tpk15"</t>
+  </si>
+  <si>
+    <t>"AS"</t>
+  </si>
+  <si>
+    <t>"ASName"</t>
+  </si>
+  <si>
+    <t>"Tpk11"</t>
+  </si>
+  <si>
+    <t>"DAP"</t>
+  </si>
+  <si>
+    <t>"DAPName"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,6 +488,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -424,6 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +927,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1405,11 +1591,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Zenganame</v>
+        <v>ZEBRAname</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>59</v>
@@ -1420,7 +1606,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is Zenga Zenganame field</v>
+        <v>This Is ZEBRA ZEBRAname field</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -1498,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BC83BB-AFE8-4548-A31E-00B8B1C88279}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,10 +1714,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -1539,18 +1725,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -1561,7 +1747,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1572,7 +1758,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -1583,7 +1769,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -1594,7 +1780,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1605,7 +1791,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1616,7 +1802,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1627,7 +1813,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1638,10 +1824,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1649,18 +1835,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -1671,7 +1857,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -1680,12 +1866,1523 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96CE0B-0E03-034E-B85C-F3EDB915C263}">
+  <dimension ref="A1:AK108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="102" workbookViewId="0">
+      <selection activeCell="X82" sqref="X82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4.1640625" customWidth="1"/>
+    <col min="21" max="22" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" customWidth="1"/>
+    <col min="24" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1"/>
+    <col min="27" max="28" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.83203125" customWidth="1"/>
+    <col min="31" max="31" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"""Tpk1"""</f>
+        <v>"Tpk1"</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="str">
+        <f>"""ZEBRA"""</f>
+        <v>"ZEBRA"</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="str">
+        <f>"""ZEBRAName"""</f>
+        <v>"ZEBRAName"</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"""Tpk2"""</f>
+        <v>"Tpk2"</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"""MARS"""</f>
+        <v>"MARS"</v>
+      </c>
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="str">
+        <f>"""MARSName"""</f>
+        <v>"MARSName"</v>
+      </c>
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14" t="s">
+        <v>110</v>
+      </c>
+      <c r="V14" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="V17" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" t="s">
+        <v>98</v>
+      </c>
+      <c r="X17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="V20" t="s">
+        <v>112</v>
+      </c>
+      <c r="W20" t="s">
+        <v>98</v>
+      </c>
+      <c r="X20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="V23" t="s">
+        <v>112</v>
+      </c>
+      <c r="W23" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>101</v>
+      </c>
+      <c r="U25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>115</v>
+      </c>
+      <c r="S26" t="s">
+        <v>98</v>
+      </c>
+      <c r="T26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="V28" t="s">
+        <v>116</v>
+      </c>
+      <c r="W28" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="V31" t="s">
+        <v>116</v>
+      </c>
+      <c r="W31" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="V34" t="s">
+        <v>116</v>
+      </c>
+      <c r="W34" t="s">
+        <v>98</v>
+      </c>
+      <c r="X34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>100</v>
+      </c>
+      <c r="R37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>119</v>
+      </c>
+      <c r="S39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" t="s">
+        <v>97</v>
+      </c>
+      <c r="U39" t="s">
+        <v>120</v>
+      </c>
+      <c r="V39" t="s">
+        <v>98</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>121</v>
+      </c>
+      <c r="V40" t="s">
+        <v>98</v>
+      </c>
+      <c r="W40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="X41" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>100</v>
+      </c>
+      <c r="R44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>125</v>
+      </c>
+      <c r="S46" t="s">
+        <v>98</v>
+      </c>
+      <c r="T46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>97</v>
+      </c>
+      <c r="V47" t="s">
+        <v>126</v>
+      </c>
+      <c r="W47" t="s">
+        <v>98</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="15:30" x14ac:dyDescent="0.2">
+      <c r="V48" t="s">
+        <v>127</v>
+      </c>
+      <c r="W48" t="s">
+        <v>98</v>
+      </c>
+      <c r="X48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y49" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X50" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V51" t="s">
+        <v>130</v>
+      </c>
+      <c r="W51" t="s">
+        <v>98</v>
+      </c>
+      <c r="X51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y52" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AB53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AE54" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AD55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AA56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X57" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V58" t="s">
+        <v>136</v>
+      </c>
+      <c r="W58" t="s">
+        <v>98</v>
+      </c>
+      <c r="X58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y59" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>100</v>
+      </c>
+      <c r="V61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>97</v>
+      </c>
+      <c r="V62" t="s">
+        <v>126</v>
+      </c>
+      <c r="W62" t="s">
+        <v>98</v>
+      </c>
+      <c r="X62">
+        <v>8</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V63" t="s">
+        <v>127</v>
+      </c>
+      <c r="W63" t="s">
+        <v>98</v>
+      </c>
+      <c r="X63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y64" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD64">
+        <v>2</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X65" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V66" t="s">
+        <v>130</v>
+      </c>
+      <c r="W66" t="s">
+        <v>98</v>
+      </c>
+      <c r="X66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y67" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD67">
+        <v>2</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AB68" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AE69" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AD70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AA71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X72" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V73" t="s">
+        <v>136</v>
+      </c>
+      <c r="W73" t="s">
+        <v>98</v>
+      </c>
+      <c r="X73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD74">
+        <v>2</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U76" t="s">
+        <v>100</v>
+      </c>
+      <c r="V76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U77" t="s">
+        <v>97</v>
+      </c>
+      <c r="V77" t="s">
+        <v>126</v>
+      </c>
+      <c r="W77" t="s">
+        <v>98</v>
+      </c>
+      <c r="X77">
+        <v>7</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V78" t="s">
+        <v>127</v>
+      </c>
+      <c r="W78" t="s">
+        <v>98</v>
+      </c>
+      <c r="X78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y79" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD79">
+        <v>2</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X80" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V81" t="s">
+        <v>130</v>
+      </c>
+      <c r="W81" t="s">
+        <v>98</v>
+      </c>
+      <c r="X81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y82" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD82">
+        <v>2</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AB83" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AE84" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AA86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="X87" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V88" t="s">
+        <v>136</v>
+      </c>
+      <c r="W88" t="s">
+        <v>98</v>
+      </c>
+      <c r="X88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Z90" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE90">
+        <v>7</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y91" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y92" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+      <c r="AB92" s="10"/>
+      <c r="AC92" s="10"/>
+      <c r="AD92" s="10"/>
+      <c r="AE92" s="10"/>
+      <c r="AF92" s="10"/>
+    </row>
+    <row r="93" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA93" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB93" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC93" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD93" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE93" s="10">
+        <v>8</v>
+      </c>
+      <c r="AF93" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y94" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="10"/>
+      <c r="AF94" s="10"/>
+    </row>
+    <row r="95" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y95" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
+      <c r="AE95" s="10"/>
+      <c r="AF95" s="10"/>
+    </row>
+    <row r="96" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA96" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB96" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC96" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD96" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE96" s="10">
+        <v>9</v>
+      </c>
+      <c r="AF96" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="Y97" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
+    </row>
+    <row r="98" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="X98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="U99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="T100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="Q101" t="s">
+        <v>100</v>
+      </c>
+      <c r="R101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>139</v>
+      </c>
+      <c r="P102" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="R103" t="s">
+        <v>140</v>
+      </c>
+      <c r="S103" t="s">
+        <v>98</v>
+      </c>
+      <c r="T103" t="s">
+        <v>97</v>
+      </c>
+      <c r="U103" t="s">
+        <v>141</v>
+      </c>
+      <c r="V103" t="s">
+        <v>98</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="Q104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="N105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="K106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AF16A0-1E3E-1448-A501-D8E7CE90B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A3B879-F5C7-C842-8284-1D83BED8234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="143">
   <si>
     <t>Source Topic</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>"SUNName"</t>
+  </si>
+  <si>
+    <t>},</t>
   </si>
   <si>
     <t>"Tpk3"</t>
@@ -1885,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96CE0B-0E03-034E-B85C-F3EDB915C263}">
-  <dimension ref="A1:AK108"/>
+  <dimension ref="A1:AK118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="102" workbookViewId="0">
-      <selection activeCell="X82" sqref="X82"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="102" workbookViewId="0">
+      <selection activeCell="AE81" sqref="AE81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2077,7 +2080,7 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s">
         <v>98</v>
@@ -2146,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s">
         <v>98</v>
@@ -2166,7 +2169,7 @@
         <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S11" t="s">
         <v>98</v>
@@ -2175,7 +2178,7 @@
         <v>97</v>
       </c>
       <c r="U11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V11" t="s">
         <v>98</v>
@@ -2215,7 +2218,7 @@
         <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P13" t="s">
         <v>98</v>
@@ -2235,7 +2238,7 @@
         <v>76</v>
       </c>
       <c r="R14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S14" t="s">
         <v>98</v>
@@ -2244,7 +2247,7 @@
         <v>97</v>
       </c>
       <c r="U14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V14" t="s">
         <v>98</v>
@@ -2270,7 +2273,7 @@
         <v>77</v>
       </c>
       <c r="R15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S15" t="s">
         <v>98</v>
@@ -2286,7 +2289,7 @@
     </row>
     <row r="17" spans="18:28" x14ac:dyDescent="0.2">
       <c r="V17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W17" t="s">
         <v>98</v>
@@ -2295,7 +2298,7 @@
         <v>97</v>
       </c>
       <c r="Y17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z17" t="s">
         <v>98</v>
@@ -2322,7 +2325,7 @@
     </row>
     <row r="20" spans="18:28" x14ac:dyDescent="0.2">
       <c r="V20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W20" t="s">
         <v>98</v>
@@ -2331,7 +2334,7 @@
         <v>97</v>
       </c>
       <c r="Y20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z20" t="s">
         <v>98</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="23" spans="18:28" x14ac:dyDescent="0.2">
       <c r="V23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W23" t="s">
         <v>98</v>
@@ -2367,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="Y23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z23" t="s">
         <v>98</v>
@@ -2394,7 +2397,7 @@
     </row>
     <row r="26" spans="18:28" x14ac:dyDescent="0.2">
       <c r="R26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S26" t="s">
         <v>98</v>
@@ -2410,7 +2413,7 @@
     </row>
     <row r="28" spans="18:28" x14ac:dyDescent="0.2">
       <c r="V28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W28" t="s">
         <v>98</v>
@@ -2419,7 +2422,7 @@
         <v>97</v>
       </c>
       <c r="Y28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z28" t="s">
         <v>98</v>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="31" spans="18:28" x14ac:dyDescent="0.2">
       <c r="V31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W31" t="s">
         <v>98</v>
@@ -2455,7 +2458,7 @@
         <v>97</v>
       </c>
       <c r="Y31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z31" t="s">
         <v>98</v>
@@ -2482,7 +2485,7 @@
     </row>
     <row r="34" spans="15:30" x14ac:dyDescent="0.2">
       <c r="V34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W34" t="s">
         <v>98</v>
@@ -2491,7 +2494,7 @@
         <v>97</v>
       </c>
       <c r="Y34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z34" t="s">
         <v>98</v>
@@ -2523,7 +2526,7 @@
     </row>
     <row r="38" spans="15:30" x14ac:dyDescent="0.2">
       <c r="O38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P38" t="s">
         <v>98</v>
@@ -2534,7 +2537,7 @@
     </row>
     <row r="39" spans="15:30" x14ac:dyDescent="0.2">
       <c r="R39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S39" t="s">
         <v>98</v>
@@ -2543,7 +2546,7 @@
         <v>97</v>
       </c>
       <c r="U39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V39" t="s">
         <v>98</v>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="40" spans="15:30" x14ac:dyDescent="0.2">
       <c r="U40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V40" t="s">
         <v>98</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="41" spans="15:30" x14ac:dyDescent="0.2">
       <c r="X41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y41" t="s">
         <v>98</v>
@@ -2577,7 +2580,7 @@
         <v>97</v>
       </c>
       <c r="AA41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB41" t="s">
         <v>98</v>
@@ -2609,7 +2612,7 @@
     </row>
     <row r="45" spans="15:30" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P45" t="s">
         <v>98</v>
@@ -2620,7 +2623,7 @@
     </row>
     <row r="46" spans="15:30" x14ac:dyDescent="0.2">
       <c r="R46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S46" t="s">
         <v>98</v>
@@ -2634,7 +2637,7 @@
         <v>97</v>
       </c>
       <c r="V47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W47" t="s">
         <v>98</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="48" spans="15:30" x14ac:dyDescent="0.2">
       <c r="V48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W48" t="s">
         <v>98</v>
@@ -2657,9 +2660,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="49" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Y49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z49" t="s">
         <v>98</v>
@@ -2668,7 +2671,7 @@
         <v>97</v>
       </c>
       <c r="AB49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC49" t="s">
         <v>98</v>
@@ -2680,7 +2683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="22:37" x14ac:dyDescent="0.2">
       <c r="X50" t="s">
         <v>100</v>
       </c>
@@ -2688,9 +2691,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W51" t="s">
         <v>98</v>
@@ -2699,9 +2702,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z52" t="s">
         <v>98</v>
@@ -2710,7 +2713,7 @@
         <v>97</v>
       </c>
       <c r="AB52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC52" t="s">
         <v>98</v>
@@ -2722,9 +2725,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="22:37" x14ac:dyDescent="0.2">
       <c r="AB53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC53" t="s">
         <v>98</v>
@@ -2733,9 +2736,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="22:37" x14ac:dyDescent="0.2">
       <c r="AE54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF54" t="s">
         <v>98</v>
@@ -2744,7 +2747,7 @@
         <v>97</v>
       </c>
       <c r="AH54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI54" t="s">
         <v>98</v>
@@ -2756,17 +2759,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="22:37" x14ac:dyDescent="0.2">
       <c r="AD55" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="22:37" x14ac:dyDescent="0.2">
       <c r="AA56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="22:37" x14ac:dyDescent="0.2">
       <c r="X57" t="s">
         <v>100</v>
       </c>
@@ -2774,257 +2777,236 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="21:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="22:37" x14ac:dyDescent="0.2">
       <c r="V58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W58" t="s">
         <v>98</v>
       </c>
       <c r="X58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="21:37" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Y59" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Z60" t="s">
         <v>138</v>
       </c>
-      <c r="AC59" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD59">
+      <c r="AA60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE60">
         <v>1</v>
       </c>
-      <c r="AE59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U61" t="s">
-        <v>100</v>
-      </c>
-      <c r="V61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U62" t="s">
-        <v>97</v>
-      </c>
-      <c r="V62" t="s">
-        <v>126</v>
-      </c>
-      <c r="W62" t="s">
-        <v>98</v>
-      </c>
-      <c r="X62">
-        <v>8</v>
-      </c>
+      <c r="AF60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Y62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V63" t="s">
-        <v>127</v>
-      </c>
-      <c r="W63" t="s">
-        <v>98</v>
-      </c>
-      <c r="X63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="21:37" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Z63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE63">
+        <v>3</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="22:37" x14ac:dyDescent="0.2">
       <c r="Y64" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD64">
-        <v>2</v>
-      </c>
-      <c r="AE64" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="65" spans="21:37" x14ac:dyDescent="0.2">
       <c r="X65" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>100</v>
+      </c>
+      <c r="V66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V66" t="s">
+    <row r="67" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U67" t="s">
+        <v>97</v>
+      </c>
+      <c r="V67" t="s">
+        <v>127</v>
+      </c>
+      <c r="W67" t="s">
+        <v>98</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V68" t="s">
+        <v>128</v>
+      </c>
+      <c r="W68" t="s">
+        <v>98</v>
+      </c>
+      <c r="X68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y69" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB69" t="s">
         <v>130</v>
       </c>
-      <c r="W66" t="s">
-        <v>98</v>
-      </c>
-      <c r="X66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y67" t="s">
+      <c r="AC69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD69">
+        <v>2</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X70" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V71" t="s">
         <v>131</v>
       </c>
-      <c r="Z67" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB67" t="s">
+      <c r="W71" t="s">
+        <v>98</v>
+      </c>
+      <c r="X71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y72" t="s">
         <v>132</v>
       </c>
-      <c r="AC67" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD67">
+      <c r="Z72" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD72">
         <v>2</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AE72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AB68" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AE69" t="s">
+    <row r="73" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AB73" t="s">
         <v>134</v>
       </c>
-      <c r="AF69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH69" t="s">
+      <c r="AC73" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AE74" t="s">
         <v>135</v>
       </c>
-      <c r="AI69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ69">
+      <c r="AF74" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ74">
         <v>2</v>
       </c>
-      <c r="AK69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AD70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AA71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X72" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V73" t="s">
-        <v>136</v>
-      </c>
-      <c r="W73" t="s">
-        <v>98</v>
-      </c>
-      <c r="X73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y74" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD74">
-        <v>2</v>
-      </c>
-      <c r="AE74" t="s">
+      <c r="AK74" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X75" t="s">
+      <c r="AD75" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="76" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U76" t="s">
-        <v>100</v>
-      </c>
-      <c r="V76" t="s">
-        <v>102</v>
+      <c r="AA76" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U77" t="s">
-        <v>97</v>
-      </c>
-      <c r="V77" t="s">
-        <v>126</v>
-      </c>
-      <c r="W77" t="s">
-        <v>98</v>
-      </c>
-      <c r="X77">
-        <v>7</v>
+      <c r="X77" t="s">
+        <v>100</v>
       </c>
       <c r="Y77" t="s">
         <v>102</v>
@@ -3032,356 +3014,466 @@
     </row>
     <row r="78" spans="21:37" x14ac:dyDescent="0.2">
       <c r="V78" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="W78" t="s">
         <v>98</v>
       </c>
       <c r="X78" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="21:37" x14ac:dyDescent="0.2">
       <c r="Y79" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD79">
-        <v>2</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X80" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE80">
+        <v>6</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y81" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V81" t="s">
-        <v>130</v>
-      </c>
-      <c r="W81" t="s">
-        <v>98</v>
-      </c>
-      <c r="X81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="22:37" x14ac:dyDescent="0.2">
+    <row r="82" spans="21:37" x14ac:dyDescent="0.2">
       <c r="Y82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD82">
-        <v>2</v>
-      </c>
-      <c r="AE82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Z83" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE83">
+        <v>5</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U86" t="s">
+        <v>100</v>
+      </c>
+      <c r="V86" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AB83" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AE84" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ84">
-        <v>2</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AD85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AA86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X87" t="s">
-        <v>100</v>
+    <row r="87" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="U87" t="s">
+        <v>97</v>
+      </c>
+      <c r="V87" t="s">
+        <v>127</v>
+      </c>
+      <c r="W87" t="s">
+        <v>98</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
       </c>
       <c r="Y87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="22:37" x14ac:dyDescent="0.2">
+    <row r="88" spans="21:37" x14ac:dyDescent="0.2">
       <c r="V88" t="s">
+        <v>128</v>
+      </c>
+      <c r="W88" t="s">
+        <v>98</v>
+      </c>
+      <c r="X88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y89" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD89">
+        <v>2</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="X90" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="V91" t="s">
+        <v>131</v>
+      </c>
+      <c r="W91" t="s">
+        <v>98</v>
+      </c>
+      <c r="X91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="Y92" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD92">
+        <v>2</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AB93" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AE94" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH94" t="s">
         <v>136</v>
       </c>
-      <c r="W88" t="s">
-        <v>98</v>
-      </c>
-      <c r="X88" t="s">
+      <c r="AI94" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AD95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="21:37" x14ac:dyDescent="0.2">
+      <c r="AA96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="X97" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="V98" t="s">
+        <v>137</v>
+      </c>
+      <c r="W98" t="s">
+        <v>98</v>
+      </c>
+      <c r="X98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Z90" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC90" t="s">
+    <row r="99" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Z100" t="s">
         <v>138</v>
       </c>
-      <c r="AD90" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE90">
+      <c r="AA100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE100">
         <v>7</v>
       </c>
-      <c r="AF90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y91" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z91" t="s">
+      <c r="AF100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y101" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y92" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z92" s="10"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="10"/>
-      <c r="AC92" s="10"/>
-      <c r="AD92" s="10"/>
-      <c r="AE92" s="10"/>
-      <c r="AF92" s="10"/>
-    </row>
-    <row r="93" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y93" s="10"/>
-      <c r="Z93" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA93" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB93" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC93" s="10" t="s">
+    <row r="102" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y102" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="10"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="10"/>
+      <c r="AE102" s="10"/>
+      <c r="AF102" s="10"/>
+    </row>
+    <row r="103" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y103" s="10"/>
+      <c r="Z103" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AD93" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE93" s="10">
+      <c r="AA103" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB103" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC103" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD103" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE103" s="10">
         <v>8</v>
       </c>
-      <c r="AF93" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y94" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z94" s="10" t="s">
+      <c r="AF103" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y104" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z104" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="AA94" s="10"/>
-      <c r="AB94" s="10"/>
-      <c r="AC94" s="10"/>
-      <c r="AD94" s="10"/>
-      <c r="AE94" s="10"/>
-      <c r="AF94" s="10"/>
-    </row>
-    <row r="95" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y95" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z95" s="10"/>
-      <c r="AA95" s="10"/>
-      <c r="AB95" s="10"/>
-      <c r="AC95" s="10"/>
-      <c r="AD95" s="10"/>
-      <c r="AE95" s="10"/>
-      <c r="AF95" s="10"/>
-    </row>
-    <row r="96" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y96" s="10"/>
-      <c r="Z96" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA96" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB96" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC96" s="10" t="s">
+      <c r="AA104" s="10"/>
+      <c r="AB104" s="10"/>
+      <c r="AC104" s="10"/>
+      <c r="AD104" s="10"/>
+      <c r="AE104" s="10"/>
+      <c r="AF104" s="10"/>
+    </row>
+    <row r="105" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y105" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z105" s="10"/>
+      <c r="AA105" s="10"/>
+      <c r="AB105" s="10"/>
+      <c r="AC105" s="10"/>
+      <c r="AD105" s="10"/>
+      <c r="AE105" s="10"/>
+      <c r="AF105" s="10"/>
+    </row>
+    <row r="106" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y106" s="10"/>
+      <c r="Z106" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AD96" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE96" s="10">
+      <c r="AA106" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB106" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC106" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD106" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE106" s="10">
         <v>9</v>
       </c>
-      <c r="AF96" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="Y97" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z97" s="10"/>
-      <c r="AA97" s="10"/>
-      <c r="AB97" s="10"/>
-      <c r="AC97" s="10"/>
-      <c r="AD97" s="10"/>
-      <c r="AE97" s="10"/>
-      <c r="AF97" s="10"/>
-    </row>
-    <row r="98" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="X98" t="s">
+      <c r="AF106" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Y107" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z107" s="10"/>
+      <c r="AA107" s="10"/>
+      <c r="AB107" s="10"/>
+      <c r="AC107" s="10"/>
+      <c r="AD107" s="10"/>
+      <c r="AE107" s="10"/>
+      <c r="AF107" s="10"/>
+    </row>
+    <row r="108" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="X108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="U99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="T100" t="s">
+    <row r="109" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="U109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="T110" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
-        <v>100</v>
-      </c>
-      <c r="R101" t="s">
+    <row r="111" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="Q111" t="s">
+        <v>100</v>
+      </c>
+      <c r="R111" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="O102" t="s">
-        <v>139</v>
-      </c>
-      <c r="P102" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="R103" t="s">
+    <row r="112" spans="15:32" x14ac:dyDescent="0.2">
+      <c r="O112" t="s">
         <v>140</v>
       </c>
-      <c r="S103" t="s">
-        <v>98</v>
-      </c>
-      <c r="T103" t="s">
-        <v>97</v>
-      </c>
-      <c r="U103" t="s">
+      <c r="P112" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="R113" t="s">
         <v>141</v>
       </c>
-      <c r="V103" t="s">
-        <v>98</v>
-      </c>
-      <c r="W103">
+      <c r="S113" t="s">
+        <v>98</v>
+      </c>
+      <c r="T113" t="s">
+        <v>97</v>
+      </c>
+      <c r="U113" t="s">
+        <v>142</v>
+      </c>
+      <c r="V113" t="s">
+        <v>98</v>
+      </c>
+      <c r="W113">
         <v>1</v>
       </c>
-      <c r="X103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="N105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="K106" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="H107" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
+      <c r="X113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="Q114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="N115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="K116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
         <v>100</v>
       </c>
     </row>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A3B879-F5C7-C842-8284-1D83BED8234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B646F-3621-8643-83BD-42BC2CE50D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
@@ -473,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +496,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -503,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -603,6 +617,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,7 +628,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,14 +968,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1888,1592 +1905,1716 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96CE0B-0E03-034E-B85C-F3EDB915C263}">
-  <dimension ref="A1:AK118"/>
+  <dimension ref="A1:AP119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="102" workbookViewId="0">
-      <selection activeCell="AE81" sqref="AE81"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" customWidth="1"/>
-    <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="3.83203125" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6640625" customWidth="1"/>
-    <col min="20" max="20" width="4.1640625" customWidth="1"/>
-    <col min="21" max="22" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.1640625" customWidth="1"/>
-    <col min="24" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5" customWidth="1"/>
-    <col min="27" max="28" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.83203125" customWidth="1"/>
-    <col min="31" max="31" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="13"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="3.1640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" customWidth="1"/>
+    <col min="22" max="22" width="4.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
+    <col min="25" max="25" width="4.1640625" customWidth="1"/>
+    <col min="26" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.1640625" customWidth="1"/>
+    <col min="29" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5" customWidth="1"/>
+    <col min="32" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.83203125" customWidth="1"/>
+    <col min="36" max="36" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="12" t="str">
+        <f>"["""&amp;A1&amp;""","""&amp;B1&amp;""","&amp;""""&amp;C1&amp;"""],"</f>
+        <v>["Tpk1","ZEBRA","Array"],</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="str">
+      <c r="D2" s="12" t="str">
+        <f t="shared" ref="D2:D15" si="0">"["""&amp;A2&amp;""","""&amp;B2&amp;""","&amp;""""&amp;C2&amp;"""],"</f>
+        <v>["Tpk2","MARS","Object"],</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="K2" t="str">
         <f>"""Tpk1"""</f>
         <v>"Tpk1"</v>
       </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I3" t="str">
+      <c r="D3" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk3","MARS.SUN","Object"],</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="N3" t="str">
         <f>"""ZEBRA"""</f>
         <v>"ZEBRA"</v>
       </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="str">
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="str">
         <f>"""ZEBRAName"""</f>
         <v>"ZEBRAName"</v>
       </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3">
+      <c r="S3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I4" t="str">
+      <c r="D4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk4","MARS.MOON","Object"],</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk5","MARS.EARTH","Object"],</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="N5" t="str">
         <f>"""Tpk2"""</f>
         <v>"Tpk2"</v>
       </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="str">
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk6","MARS.EARTH.PLANET","Array"],</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="Q6" t="str">
         <f>"""MARS"""</f>
         <v>"MARS"</v>
       </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="str">
+      <c r="D7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk7","MARS.EARTH.SATALITE","Array"],</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="T7" t="str">
         <f>"""MARSName"""</f>
         <v>"MARSName"</v>
       </c>
-      <c r="P6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6">
+      <c r="U7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7">
         <v>1</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk8","MARS.SOLAR","Object"],</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="T8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk9","MARS.SOLAR.BLAKHOLE","Object"],</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk10","MARS.UNIVERSE","Array"],</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="V10" t="s">
+        <v>100</v>
+      </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk12","MARS.UNIVERSE.GALAXY","object"],</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="T11" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R8" t="s">
-        <v>103</v>
-      </c>
-      <c r="S8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" t="s">
-        <v>104</v>
-      </c>
-      <c r="V8" t="s">
-        <v>98</v>
-      </c>
-      <c r="W8">
+      <c r="D12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk13","MARS.UNIVERSE.CENTERPT","Object"],</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="W12" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
-      <c r="X8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="AC12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="D13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk14","MARS.UNIVERSE.CENTERPT.HOLE","Object"],</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="V13" t="s">
+        <v>100</v>
+      </c>
+      <c r="W13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s">
-        <v>107</v>
-      </c>
-      <c r="S11" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" t="s">
-        <v>108</v>
-      </c>
-      <c r="V11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11">
+      <c r="D14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk15","MARS.UNIVERSE.AS","Array"],</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="T14" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" t="s">
+        <v>98</v>
+      </c>
+      <c r="V14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>["Tpk11","MARS.DAP","Object"],</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="W15" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB15">
         <v>1</v>
       </c>
-      <c r="X11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" t="s">
+      <c r="AC15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S14" t="s">
-        <v>98</v>
-      </c>
-      <c r="T14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" t="s">
-        <v>111</v>
-      </c>
-      <c r="V14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W14">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>115</v>
+      </c>
+      <c r="X16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="AA18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF18">
         <v>1</v>
       </c>
-      <c r="X14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="AG18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" t="s">
-        <v>115</v>
-      </c>
-      <c r="S15" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" t="s">
+    <row r="20" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="AA21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="AA24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Y26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>116</v>
+      </c>
+      <c r="X27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="U16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="V17" t="s">
-        <v>113</v>
-      </c>
-      <c r="W17" t="s">
-        <v>98</v>
-      </c>
-      <c r="X17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA17">
+    <row r="28" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="AA29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF29">
         <v>1</v>
       </c>
-      <c r="AB17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U18" t="s">
-        <v>100</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="AG29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="V20" t="s">
-        <v>113</v>
-      </c>
-      <c r="W20" t="s">
-        <v>98</v>
-      </c>
-      <c r="X20" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA20">
+    <row r="31" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="Z31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="23:33" x14ac:dyDescent="0.2">
+      <c r="AA32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF32">
         <v>2</v>
       </c>
-      <c r="AB20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U21" t="s">
-        <v>100</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="AG32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Z33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="V23" t="s">
-        <v>113</v>
-      </c>
-      <c r="W23" t="s">
-        <v>98</v>
-      </c>
-      <c r="X23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23">
+    <row r="34" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Z34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AA35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF35">
         <v>3</v>
       </c>
-      <c r="AB23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="T25" t="s">
+      <c r="AG35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Z36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Y37" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s">
+    </row>
+    <row r="38" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="V38" t="s">
+        <v>100</v>
+      </c>
+      <c r="W38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="R26" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" t="s">
-        <v>98</v>
-      </c>
-      <c r="T26" t="s">
+    <row r="39" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
+        <v>119</v>
+      </c>
+      <c r="U39" t="s">
+        <v>98</v>
+      </c>
+      <c r="V39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="W40" t="s">
+        <v>120</v>
+      </c>
+      <c r="X40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Z41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AC42" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AB43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Y44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="V45" t="s">
+        <v>100</v>
+      </c>
+      <c r="W45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="T46" t="s">
+        <v>125</v>
+      </c>
+      <c r="U46" t="s">
+        <v>98</v>
+      </c>
+      <c r="V46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="W47" t="s">
+        <v>126</v>
+      </c>
+      <c r="X47" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="V28" t="s">
-        <v>117</v>
-      </c>
-      <c r="W28" t="s">
-        <v>98</v>
-      </c>
-      <c r="X28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA28">
+    <row r="48" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="Z48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC48">
         <v>1</v>
       </c>
-      <c r="AB28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U29" t="s">
-        <v>100</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="AD48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="V31" t="s">
-        <v>117</v>
-      </c>
-      <c r="W31" t="s">
-        <v>98</v>
-      </c>
-      <c r="X31" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA31">
+    <row r="49" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AA49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AD50" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AC51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AA52" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AD53" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AG54" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AJ55" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AI56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AF57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AC58" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AA59" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AD60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AE61" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AD62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AD63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="27:42" x14ac:dyDescent="0.2">
+      <c r="AE64" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ64">
+        <v>3</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AC66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="Z67" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="Z68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC68">
+        <v>8</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AA69" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD70" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI70">
         <v>2</v>
       </c>
-      <c r="AB31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="18:28" x14ac:dyDescent="0.2">
-      <c r="U32" t="s">
-        <v>100</v>
-      </c>
-      <c r="V32" t="s">
+      <c r="AJ70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AC71" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD71" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="U33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="V34" t="s">
-        <v>117</v>
-      </c>
-      <c r="W34" t="s">
-        <v>98</v>
-      </c>
-      <c r="X34" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA34">
-        <v>3</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="U35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="T36" t="s">
+    <row r="72" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AA72" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD73" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI73">
+        <v>2</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AG74" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AJ75" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AI76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AF77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AC78" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AA79" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AE81" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ81">
+        <v>6</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AE84" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ84">
+        <v>5</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AC86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="Q37" t="s">
-        <v>100</v>
-      </c>
-      <c r="R37" t="s">
+    <row r="87" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="Z87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="O38" t="s">
-        <v>119</v>
-      </c>
-      <c r="P38" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="R39" t="s">
-        <v>120</v>
-      </c>
-      <c r="S39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T39" t="s">
-        <v>97</v>
-      </c>
-      <c r="U39" t="s">
-        <v>121</v>
-      </c>
-      <c r="V39" t="s">
-        <v>98</v>
-      </c>
-      <c r="W39">
+    <row r="88" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="Z88" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC88">
+        <v>7</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AA89" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD90" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AC91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AA92" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AD93" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI93">
+        <v>2</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AG94" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AJ95" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO95">
+        <v>2</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="26:42" x14ac:dyDescent="0.2">
+      <c r="AI96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AF97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AC98" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AA99" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AE101" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ101">
+        <v>7</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD103" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7"/>
+      <c r="AK103" s="7"/>
+    </row>
+    <row r="104" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF104" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG104" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH104" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI104" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ104" s="7">
+        <v>8</v>
+      </c>
+      <c r="AK104" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD105" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE105" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF105" s="7"/>
+      <c r="AG105" s="7"/>
+      <c r="AH105" s="7"/>
+      <c r="AI105" s="7"/>
+      <c r="AJ105" s="7"/>
+      <c r="AK105" s="7"/>
+    </row>
+    <row r="106" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE106" s="7"/>
+      <c r="AF106" s="7"/>
+      <c r="AG106" s="7"/>
+      <c r="AH106" s="7"/>
+      <c r="AI106" s="7"/>
+      <c r="AJ106" s="7"/>
+      <c r="AK106" s="7"/>
+    </row>
+    <row r="107" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF107" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG107" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH107" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI107" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ107" s="7">
+        <v>9</v>
+      </c>
+      <c r="AK107" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AD108" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE108" s="7"/>
+      <c r="AF108" s="7"/>
+      <c r="AG108" s="7"/>
+      <c r="AH108" s="7"/>
+      <c r="AI108" s="7"/>
+      <c r="AJ108" s="7"/>
+      <c r="AK108" s="7"/>
+    </row>
+    <row r="109" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="AC109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Z110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="Y111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="22:37" x14ac:dyDescent="0.2">
+      <c r="V112" t="s">
+        <v>100</v>
+      </c>
+      <c r="W112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="T113" t="s">
+        <v>140</v>
+      </c>
+      <c r="U113" t="s">
+        <v>98</v>
+      </c>
+      <c r="V113" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="W114" t="s">
+        <v>141</v>
+      </c>
+      <c r="X114" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB114">
         <v>1</v>
       </c>
-      <c r="X39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="U40" t="s">
-        <v>122</v>
-      </c>
-      <c r="V40" t="s">
-        <v>98</v>
-      </c>
-      <c r="W40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="X41" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC41">
-        <v>1</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="W42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="T43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="Q44" t="s">
-        <v>100</v>
-      </c>
-      <c r="R44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="O45" t="s">
-        <v>125</v>
-      </c>
-      <c r="P45" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="R46" t="s">
-        <v>126</v>
-      </c>
-      <c r="S46" t="s">
-        <v>98</v>
-      </c>
-      <c r="T46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="U47" t="s">
-        <v>97</v>
-      </c>
-      <c r="V47" t="s">
-        <v>127</v>
-      </c>
-      <c r="W47" t="s">
-        <v>98</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="15:30" x14ac:dyDescent="0.2">
-      <c r="V48" t="s">
-        <v>128</v>
-      </c>
-      <c r="W48" t="s">
-        <v>98</v>
-      </c>
-      <c r="X48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y49" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X50" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V51" t="s">
-        <v>131</v>
-      </c>
-      <c r="W51" t="s">
-        <v>98</v>
-      </c>
-      <c r="X51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y52" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AB53" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AE54" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AD55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="AA56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="X57" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="V58" t="s">
-        <v>137</v>
-      </c>
-      <c r="W58" t="s">
-        <v>98</v>
-      </c>
-      <c r="X58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Z60" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Z63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE63">
-        <v>3</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="22:37" x14ac:dyDescent="0.2">
-      <c r="Y64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U66" t="s">
-        <v>100</v>
-      </c>
-      <c r="V66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U67" t="s">
-        <v>97</v>
-      </c>
-      <c r="V67" t="s">
-        <v>127</v>
-      </c>
-      <c r="W67" t="s">
-        <v>98</v>
-      </c>
-      <c r="X67">
-        <v>8</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V68" t="s">
-        <v>128</v>
-      </c>
-      <c r="W68" t="s">
-        <v>98</v>
-      </c>
-      <c r="X68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y69" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD69">
-        <v>2</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X70" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V71" t="s">
-        <v>131</v>
-      </c>
-      <c r="W71" t="s">
-        <v>98</v>
-      </c>
-      <c r="X71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y72" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD72">
-        <v>2</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AB73" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AE74" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ74">
-        <v>2</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AD75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AA76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X77" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V78" t="s">
-        <v>137</v>
-      </c>
-      <c r="W78" t="s">
-        <v>98</v>
-      </c>
-      <c r="X78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Z80" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE80">
-        <v>6</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y81" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Z83" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE83">
-        <v>5</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U86" t="s">
-        <v>100</v>
-      </c>
-      <c r="V86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="U87" t="s">
-        <v>97</v>
-      </c>
-      <c r="V87" t="s">
-        <v>127</v>
-      </c>
-      <c r="W87" t="s">
-        <v>98</v>
-      </c>
-      <c r="X87">
-        <v>7</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V88" t="s">
-        <v>128</v>
-      </c>
-      <c r="W88" t="s">
-        <v>98</v>
-      </c>
-      <c r="X88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y89" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA89" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD89">
-        <v>2</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="X90" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="V91" t="s">
-        <v>131</v>
-      </c>
-      <c r="W91" t="s">
-        <v>98</v>
-      </c>
-      <c r="X91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="Y92" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD92">
-        <v>2</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AB93" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AE94" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF94" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH94" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI94" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ94">
-        <v>2</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AD95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="21:37" x14ac:dyDescent="0.2">
-      <c r="AA96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="X97" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="V98" t="s">
-        <v>137</v>
-      </c>
-      <c r="W98" t="s">
-        <v>98</v>
-      </c>
-      <c r="X98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Z100" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA100" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE100">
-        <v>7</v>
-      </c>
-      <c r="AF100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y102" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z102" s="10"/>
-      <c r="AA102" s="10"/>
-      <c r="AB102" s="10"/>
-      <c r="AC102" s="10"/>
-      <c r="AD102" s="10"/>
-      <c r="AE102" s="10"/>
-      <c r="AF102" s="10"/>
-    </row>
-    <row r="103" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y103" s="10"/>
-      <c r="Z103" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA103" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB103" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC103" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD103" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE103" s="10">
-        <v>8</v>
-      </c>
-      <c r="AF103" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y104" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z104" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA104" s="10"/>
-      <c r="AB104" s="10"/>
-      <c r="AC104" s="10"/>
-      <c r="AD104" s="10"/>
-      <c r="AE104" s="10"/>
-      <c r="AF104" s="10"/>
-    </row>
-    <row r="105" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y105" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z105" s="10"/>
-      <c r="AA105" s="10"/>
-      <c r="AB105" s="10"/>
-      <c r="AC105" s="10"/>
-      <c r="AD105" s="10"/>
-      <c r="AE105" s="10"/>
-      <c r="AF105" s="10"/>
-    </row>
-    <row r="106" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y106" s="10"/>
-      <c r="Z106" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA106" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB106" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC106" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD106" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE106" s="10">
-        <v>9</v>
-      </c>
-      <c r="AF106" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Y107" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z107" s="10"/>
-      <c r="AA107" s="10"/>
-      <c r="AB107" s="10"/>
-      <c r="AC107" s="10"/>
-      <c r="AD107" s="10"/>
-      <c r="AE107" s="10"/>
-      <c r="AF107" s="10"/>
-    </row>
-    <row r="108" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="X108" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="U109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="T110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="Q111" t="s">
-        <v>100</v>
-      </c>
-      <c r="R111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="15:32" x14ac:dyDescent="0.2">
-      <c r="O112" t="s">
-        <v>140</v>
-      </c>
-      <c r="P112" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="R113" t="s">
-        <v>141</v>
-      </c>
-      <c r="S113" t="s">
-        <v>98</v>
-      </c>
-      <c r="T113" t="s">
-        <v>97</v>
-      </c>
-      <c r="U113" t="s">
-        <v>142</v>
-      </c>
-      <c r="V113" t="s">
-        <v>98</v>
-      </c>
-      <c r="W113">
-        <v>1</v>
-      </c>
-      <c r="X113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="Q114" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="N115" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="K116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="H117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="5:24" x14ac:dyDescent="0.2">
-      <c r="E118" t="s">
+      <c r="AC114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="V115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="S116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="P117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="10:29" x14ac:dyDescent="0.2">
+      <c r="J119" t="s">
         <v>100</v>
       </c>
     </row>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B646F-3621-8643-83BD-42BC2CE50D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C19236-4C36-2840-9321-CC1602D60045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="19380" yWindow="500" windowWidth="19020" windowHeight="19400" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -619,6 +619,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,8 +629,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,14 +967,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1704,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1908,14 +1907,13 @@
   <dimension ref="A1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
     <col min="12" max="12" width="3.1640625" customWidth="1"/>
     <col min="13" max="13" width="3.5" customWidth="1"/>
@@ -1954,14 +1952,14 @@
       <c r="C1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="12" t="str">
+      <c r="D1" s="9" t="str">
         <f>"["""&amp;A1&amp;""","""&amp;B1&amp;""","&amp;""""&amp;C1&amp;"""],"</f>
         <v>["Tpk1","ZEBRA","Array"],</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="J1" t="s">
         <v>97</v>
       </c>
@@ -1976,14 +1974,14 @@
       <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="12" t="str">
+      <c r="D2" s="9" t="str">
         <f t="shared" ref="D2:D15" si="0">"["""&amp;A2&amp;""","""&amp;B2&amp;""","&amp;""""&amp;C2&amp;"""],"</f>
         <v>["Tpk2","MARS","Object"],</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="K2" t="str">
         <f>"""Tpk1"""</f>
         <v>"Tpk1"</v>
@@ -2005,14 +2003,14 @@
       <c r="C3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk3","MARS.SUN","Object"],</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="N3" t="str">
         <f>"""ZEBRA"""</f>
         <v>"ZEBRA"</v>
@@ -2056,14 +2054,14 @@
       <c r="C4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk4","MARS.MOON","Object"],</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -2075,14 +2073,14 @@
       <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk5","MARS.EARTH","Object"],</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="N5" t="str">
         <f>"""Tpk2"""</f>
         <v>"Tpk2"</v>
@@ -2104,14 +2102,14 @@
       <c r="C6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk6","MARS.EARTH.PLANET","Array"],</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="Q6" t="str">
         <f>"""MARS"""</f>
         <v>"MARS"</v>
@@ -2133,14 +2131,14 @@
       <c r="C7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk7","MARS.EARTH.SATALITE","Array"],</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="T7" t="str">
         <f>"""MARSName"""</f>
         <v>"MARSName"</v>
@@ -2165,14 +2163,14 @@
       <c r="C8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk8","MARS.SOLAR","Object"],</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="T8" t="s">
         <v>106</v>
       </c>
@@ -2193,14 +2191,14 @@
       <c r="C9" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk9","MARS.SOLAR.BLAKHOLE","Object"],</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="W9" t="s">
         <v>103</v>
       </c>
@@ -2233,14 +2231,14 @@
       <c r="C10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk10","MARS.UNIVERSE","Array"],</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="V10" t="s">
         <v>100</v>
       </c>
@@ -2258,14 +2256,14 @@
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk12","MARS.UNIVERSE.GALAXY","object"],</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
       <c r="T11" t="s">
         <v>109</v>
       </c>
@@ -2286,14 +2284,14 @@
       <c r="C12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk13","MARS.UNIVERSE.CENTERPT","Object"],</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
       <c r="W12" t="s">
         <v>107</v>
       </c>
@@ -2326,14 +2324,14 @@
       <c r="C13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk14","MARS.UNIVERSE.CENTERPT.HOLE","Object"],</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
       <c r="V13" t="s">
         <v>100</v>
       </c>
@@ -2351,14 +2349,14 @@
       <c r="C14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk15","MARS.UNIVERSE.AS","Array"],</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
       <c r="T14" t="s">
         <v>112</v>
       </c>
@@ -2379,14 +2377,14 @@
       <c r="C15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>["Tpk11","MARS.DAP","Object"],</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
       <c r="W15" t="s">
         <v>110</v>
       </c>

--- a/samplefile/kfk.xlsx
+++ b/samplefile/kfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/Documents/sayansi/workspaces/condaws/xlsx-json/samplefile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C19236-4C36-2840-9321-CC1602D60045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F818922-7E53-1244-BAFD-208DF2D715F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="500" windowWidth="19020" windowHeight="19400" activeTab="2" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
+    <workbookView xWindow="16820" yWindow="500" windowWidth="21580" windowHeight="19400" activeTab="1" xr2:uid="{54062B5B-119E-BD4B-B3A8-E27F027BEEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="154">
   <si>
     <t>Source Topic</t>
   </si>
@@ -467,6 +467,39 @@
   </si>
   <si>
     <t>"DAPName"</t>
+  </si>
+  <si>
+    <t>SUNName</t>
+  </si>
+  <si>
+    <t>MOONName</t>
+  </si>
+  <si>
+    <t>PLANETName</t>
+  </si>
+  <si>
+    <t>EARTHName</t>
+  </si>
+  <si>
+    <t>SATALITEName</t>
+  </si>
+  <si>
+    <t>SOLARName</t>
+  </si>
+  <si>
+    <t>BLAKHOLEName</t>
+  </si>
+  <si>
+    <t>UNIVERSEName</t>
+  </si>
+  <si>
+    <t>GALAXYName</t>
+  </si>
+  <si>
+    <t>HOLEName</t>
+  </si>
+  <si>
+    <t>CENTERPTName</t>
   </si>
 </sst>
 </file>
@@ -945,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EE713F-F4D0-1D4B-B856-52E62332C59B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,8 +1097,8 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>I3&amp;""&amp;"name"</f>
-        <v>MARSname</v>
+        <f>I3&amp;""&amp;"Name"</f>
+        <v>MARSName</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>72</v>
@@ -1109,9 +1142,8 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f>I4&amp;""&amp;"name"</f>
-        <v>MARS.SUNname</v>
+      <c r="J4" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>59</v>
@@ -1124,7 +1156,7 @@
       </c>
       <c r="N4" s="1" t="str">
         <f t="shared" ref="N4:N15" si="0">"This Is "&amp;I4&amp;" "&amp;J4&amp;" field"</f>
-        <v>This Is MARS.SUN MARS.SUNname field</v>
+        <v>This Is MARS.SUN SUNName field</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1156,9 +1188,8 @@
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f>I5&amp;""&amp;"name"</f>
-        <v>MARS.MOONname</v>
+      <c r="J5" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -1171,7 +1202,7 @@
       </c>
       <c r="N5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.MOON MARS.MOONname field</v>
+        <v>This Is MARS.MOON MOONName field</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -1203,9 +1234,8 @@
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J15" si="1">I6&amp;""&amp;"name"</f>
-        <v>MARS.EARTHname</v>
+      <c r="J6" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>71</v>
@@ -1218,7 +1248,7 @@
       </c>
       <c r="N6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.EARTH MARS.EARTHname field</v>
+        <v>This Is MARS.EARTH EARTHName field</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -1250,9 +1280,8 @@
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.EARTH.PLANETname</v>
+      <c r="J7" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>59</v>
@@ -1265,7 +1294,7 @@
       </c>
       <c r="N7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.EARTH.PLANET MARS.EARTH.PLANETname field</v>
+        <v>This Is MARS.EARTH.PLANET PLANETName field</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -1297,9 +1326,8 @@
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.EARTH.SATALITEname</v>
+      <c r="J8" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>8</v>
@@ -1312,7 +1340,7 @@
       </c>
       <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.EARTH.SATALITE MARS.EARTH.SATALITEname field</v>
+        <v>This Is MARS.EARTH.SATALITE SATALITEName field</v>
       </c>
       <c r="O8" s="1"/>
     </row>
@@ -1344,9 +1372,8 @@
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.SOLARname</v>
+      <c r="J9" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
@@ -1359,7 +1386,7 @@
       </c>
       <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.SOLAR MARS.SOLARname field</v>
+        <v>This Is MARS.SOLAR SOLARName field</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -1391,9 +1418,8 @@
       <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.SOLAR.BLAKHOLEname</v>
+      <c r="J10" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>59</v>
@@ -1406,7 +1432,7 @@
       </c>
       <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.SOLAR.BLAKHOLE MARS.SOLAR.BLAKHOLEname field</v>
+        <v>This Is MARS.SOLAR.BLAKHOLE BLAKHOLEName field</v>
       </c>
       <c r="O10" s="1"/>
     </row>
@@ -1438,9 +1464,8 @@
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.UNIVERSEname</v>
+      <c r="J11" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>8</v>
@@ -1453,7 +1478,7 @@
       </c>
       <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.UNIVERSE MARS.UNIVERSEname field</v>
+        <v>This Is MARS.UNIVERSE UNIVERSEName field</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -1485,9 +1510,8 @@
       <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.UNIVERSE.GALAXYname</v>
+      <c r="J12" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>8</v>
@@ -1500,7 +1524,7 @@
       </c>
       <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.UNIVERSE.GALAXY MARS.UNIVERSE.GALAXYname field</v>
+        <v>This Is MARS.UNIVERSE.GALAXY GALAXYName field</v>
       </c>
       <c r="O12" s="1"/>
     </row>
@@ -1532,9 +1556,8 @@
       <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.UNIVERSE.CENTERPTname</v>
+      <c r="J13" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>59</v>
@@ -1547,7 +1570,7 @@
       </c>
       <c r="N13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.UNIVERSE.CENTERPT MARS.UNIVERSE.CENTERPTname field</v>
+        <v>This Is MARS.UNIVERSE.CENTERPT CENTERPTName field</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>61</v>
@@ -1581,9 +1604,8 @@
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MARS.UNIVERSE.CENTERPT.HOLEname</v>
+      <c r="J14" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>8</v>
@@ -1596,7 +1618,7 @@
       </c>
       <c r="N14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is MARS.UNIVERSE.CENTERPT.HOLE MARS.UNIVERSE.CENTERPT.HOLEname field</v>
+        <v>This Is MARS.UNIVERSE.CENTERPT.HOLE HOLEName field</v>
       </c>
       <c r="O14" s="1"/>
     </row>
@@ -1613,8 +1635,8 @@
         <v>79</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ZEBRAname</v>
+        <f>I15&amp;""&amp;"Name"</f>
+        <v>ZEBRAName</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>59</v>
@@ -1625,7 +1647,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>This Is ZEBRA ZEBRAname field</v>
+        <v>This Is ZEBRA ZEBRAName field</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -1703,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BC83BB-AFE8-4548-A31E-00B8B1C88279}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1906,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A96CE0B-0E03-034E-B85C-F3EDB915C263}">
   <dimension ref="A1:AP119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
